--- a/result/线上线下对比.xlsx
+++ b/result/线上线下对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Competition\2018中国高校计算机大赛——大数据挑战赛\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08DD753B-1714-431C-873B-C76ABF9FC44F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECD3A218-E9B9-4C24-BC7E-CD571000988F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -870,6 +870,11 @@
       </c>
       <c r="D20" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.83437442018677699</v>
       </c>
     </row>
   </sheetData>

--- a/result/线上线下对比.xlsx
+++ b/result/线上线下对比.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Competition\2018中国高校计算机大赛——大数据挑战赛\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Competition\2018中国高校计算机大赛——大数据挑战赛\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECD3A218-E9B9-4C24-BC7E-CD571000988F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEF7B340-7F4B-43A2-8A19-7283F5692B00}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>提交时间</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>阈值0.4，num_boost_round=345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack_lgb_xgb_result_0623_1116.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking lgb和xgb参数使用；何峰的lgb参数一卿的xgb参数，第二层使用xgb，参数为kaggle参数；阈值0.418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blending lgb和xgb，阈值0.418</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,21 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" customWidth="1"/>
-    <col min="5" max="5" width="119.77734375" customWidth="1"/>
+    <col min="4" max="4" width="52.875" customWidth="1"/>
+    <col min="5" max="5" width="119.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -646,7 +659,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -660,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -674,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -689,7 +702,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -703,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -714,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -728,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -739,7 +752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -753,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -767,7 +780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -784,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -798,7 +811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>0.81313845670281304</v>
       </c>
@@ -812,7 +825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>0.81066205378204104</v>
       </c>
@@ -826,7 +839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>613</v>
       </c>
@@ -837,7 +850,7 @@
         <v>0.82018999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>0.81881899999999996</v>
       </c>
@@ -845,7 +858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>0.80849683800875605</v>
       </c>
@@ -853,7 +866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>0.83656700096853798</v>
       </c>
@@ -864,7 +877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>0.85389951650199603</v>
       </c>
@@ -872,9 +885,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>0.83437442018677699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <v>0.82052400000000003</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -892,9 +921,9 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -944,9 +973,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -975,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1004,7 +1033,7 @@
         <v>0.809956218582779</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1048,9 +1077,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1070,7 +1099,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1090,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1110,7 +1139,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1144,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1158,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1175,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1192,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1209,7 +1238,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -1240,7 +1269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G13" t="s">
         <v>58</v>
       </c>
